--- a/Code/Results/Cases/Case_3_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_190/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.47388912082416</v>
+        <v>11.4483165197934</v>
       </c>
       <c r="C2">
-        <v>13.19162125387075</v>
+        <v>9.154983712916174</v>
       </c>
       <c r="D2">
-        <v>4.621094993583267</v>
+        <v>3.615603583881652</v>
       </c>
       <c r="F2">
-        <v>13.59552114612331</v>
+        <v>17.04688280068747</v>
       </c>
       <c r="G2">
-        <v>15.35294550962994</v>
+        <v>16.43456771822514</v>
       </c>
       <c r="H2">
-        <v>6.528020111361826</v>
+        <v>11.08967466736438</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.79559503693537</v>
+        <v>15.50902330551442</v>
       </c>
       <c r="O2">
-        <v>10.02018275379205</v>
+        <v>15.22358615560785</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.25211943201895</v>
+        <v>10.82451622253506</v>
       </c>
       <c r="C3">
-        <v>12.51693897988632</v>
+        <v>8.833332285859225</v>
       </c>
       <c r="D3">
-        <v>4.377126262684324</v>
+        <v>3.508930007559171</v>
       </c>
       <c r="F3">
-        <v>13.1448664463138</v>
+        <v>17.04300878553376</v>
       </c>
       <c r="G3">
-        <v>14.68860447285607</v>
+        <v>16.39678749686747</v>
       </c>
       <c r="H3">
-        <v>6.559600833443407</v>
+        <v>11.13180457383454</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.75304802055504</v>
+        <v>15.51592581130319</v>
       </c>
       <c r="O3">
-        <v>9.925964261828449</v>
+        <v>15.28006549916674</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.45782979871273</v>
+        <v>10.42239480811681</v>
       </c>
       <c r="C4">
-        <v>12.08280003015143</v>
+        <v>8.628847687521185</v>
       </c>
       <c r="D4">
-        <v>4.219719213818785</v>
+        <v>3.441098456653105</v>
       </c>
       <c r="F4">
-        <v>12.87636099166667</v>
+        <v>17.04681965753492</v>
       </c>
       <c r="G4">
-        <v>14.29115303871847</v>
+        <v>16.38248584184311</v>
       </c>
       <c r="H4">
-        <v>6.584551841360649</v>
+        <v>11.15981399388763</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.73035109017989</v>
+        <v>15.52186180946102</v>
       </c>
       <c r="O4">
-        <v>9.880344861391929</v>
+        <v>15.31921114959527</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.12307219033706</v>
+        <v>10.25386068586346</v>
       </c>
       <c r="C5">
-        <v>11.90101775739572</v>
+        <v>8.543855826896881</v>
       </c>
       <c r="D5">
-        <v>4.153694496133887</v>
+        <v>3.412894884023953</v>
       </c>
       <c r="F5">
-        <v>12.76916717615397</v>
+        <v>17.04992805078433</v>
       </c>
       <c r="G5">
-        <v>14.1321150917422</v>
+        <v>16.37889595074702</v>
       </c>
       <c r="H5">
-        <v>6.596062107959476</v>
+        <v>11.1717660535306</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.72195328164457</v>
+        <v>15.52470902946096</v>
       </c>
       <c r="O5">
-        <v>9.864743466073831</v>
+        <v>15.33628228711098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.0668176122245</v>
+        <v>10.22559846443014</v>
       </c>
       <c r="C6">
-        <v>11.87054337054968</v>
+        <v>8.529645539883514</v>
       </c>
       <c r="D6">
-        <v>4.142618713311822</v>
+        <v>3.408178557571687</v>
       </c>
       <c r="F6">
-        <v>12.75150676221797</v>
+        <v>17.05053808358255</v>
       </c>
       <c r="G6">
-        <v>14.10589252270652</v>
+        <v>16.37843498880328</v>
       </c>
       <c r="H6">
-        <v>6.598052854798983</v>
+        <v>11.17378316273779</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.72060994123411</v>
+        <v>15.52520771090922</v>
       </c>
       <c r="O6">
-        <v>9.862330633318468</v>
+        <v>15.33918438915771</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.45335996397695</v>
+        <v>10.42014058953104</v>
       </c>
       <c r="C7">
-        <v>12.08036796376063</v>
+        <v>8.627708057124375</v>
       </c>
       <c r="D7">
-        <v>4.218836344195275</v>
+        <v>3.440720332726455</v>
       </c>
       <c r="F7">
-        <v>12.87490611915205</v>
+        <v>17.04685528292561</v>
       </c>
       <c r="G7">
-        <v>14.2889959497063</v>
+        <v>16.38242836644552</v>
       </c>
       <c r="H7">
-        <v>6.584701709854583</v>
+        <v>11.15997300589254</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.73023440122233</v>
+        <v>15.52189847239062</v>
       </c>
       <c r="O7">
-        <v>9.880122476511524</v>
+        <v>15.31943685212928</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.06178452229548</v>
+        <v>11.23727001136684</v>
       </c>
       <c r="C8">
-        <v>12.96318862796293</v>
+        <v>9.045582678014313</v>
       </c>
       <c r="D8">
-        <v>4.538571647680725</v>
+        <v>3.579321238480738</v>
       </c>
       <c r="F8">
-        <v>13.43853198000497</v>
+        <v>17.04426226583156</v>
       </c>
       <c r="G8">
-        <v>15.12188610219802</v>
+        <v>16.41969684952241</v>
       </c>
       <c r="H8">
-        <v>6.537721361864627</v>
+        <v>11.10375629489078</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.78020737394365</v>
+        <v>15.51105171162833</v>
       </c>
       <c r="O8">
-        <v>9.98510907410803</v>
+        <v>15.24213054597412</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.86587368907633</v>
+        <v>12.68327450934834</v>
       </c>
       <c r="C9">
-        <v>14.53206549381435</v>
+        <v>9.805916249799466</v>
       </c>
       <c r="D9">
-        <v>5.104079327061505</v>
+        <v>3.831611477533428</v>
       </c>
       <c r="F9">
-        <v>14.60173975010228</v>
+        <v>17.08826323817607</v>
       </c>
       <c r="G9">
-        <v>16.82575416662396</v>
+        <v>16.56310556871167</v>
       </c>
       <c r="H9">
-        <v>6.492236908115322</v>
+        <v>11.01052936186318</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.90585147714036</v>
+        <v>15.50319376337328</v>
       </c>
       <c r="O9">
-        <v>10.29128611440508</v>
+        <v>15.12616218188715</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.71351732699731</v>
+        <v>13.64535287856902</v>
       </c>
       <c r="C10">
-        <v>15.58106211951426</v>
+        <v>10.32425028905343</v>
       </c>
       <c r="D10">
-        <v>5.480981902868246</v>
+        <v>4.003904411565509</v>
       </c>
       <c r="F10">
-        <v>15.4825857681199</v>
+        <v>17.15037999818984</v>
       </c>
       <c r="G10">
-        <v>18.10558021821594</v>
+        <v>16.71070760611783</v>
       </c>
       <c r="H10">
-        <v>6.490741622893668</v>
+        <v>10.95243750530239</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.01562635228757</v>
+        <v>15.50551625554769</v>
       </c>
       <c r="O10">
-        <v>10.58090271915214</v>
+        <v>15.06291963980145</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.50826850852011</v>
+        <v>14.063719302182</v>
       </c>
       <c r="C11">
-        <v>16.03511544051164</v>
+        <v>10.55058098332583</v>
       </c>
       <c r="D11">
-        <v>5.643931637927961</v>
+        <v>4.079240451852024</v>
       </c>
       <c r="F11">
-        <v>15.88728579828047</v>
+        <v>17.18504502969394</v>
       </c>
       <c r="G11">
-        <v>18.69126241134688</v>
+        <v>16.78680729261561</v>
       </c>
       <c r="H11">
-        <v>6.497742541026813</v>
+        <v>10.92827506371955</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.06948216551904</v>
+        <v>15.50831220423471</v>
       </c>
       <c r="O11">
-        <v>10.7271932565696</v>
+        <v>15.03896342358866</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.80267670889077</v>
+        <v>14.22800221528852</v>
       </c>
       <c r="C12">
-        <v>16.20368832418623</v>
+        <v>10.63487538862329</v>
       </c>
       <c r="D12">
-        <v>5.704406459914329</v>
+        <v>4.107316081304415</v>
       </c>
       <c r="F12">
-        <v>16.04098553830013</v>
+        <v>17.19908545392696</v>
       </c>
       <c r="G12">
-        <v>18.91336913723655</v>
+        <v>16.8168877106194</v>
       </c>
       <c r="H12">
-        <v>6.501559216398705</v>
+        <v>10.91945146434235</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.09044888080803</v>
+        <v>15.50961937079761</v>
       </c>
       <c r="O12">
-        <v>10.78470476407631</v>
+        <v>15.03058731696572</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.73956124086538</v>
+        <v>14.1927950636679</v>
       </c>
       <c r="C13">
-        <v>16.16753341328103</v>
+        <v>10.6167846326398</v>
       </c>
       <c r="D13">
-        <v>5.691436952083432</v>
+        <v>4.101289841150016</v>
       </c>
       <c r="F13">
-        <v>16.00786543665591</v>
+        <v>17.19602111056205</v>
       </c>
       <c r="G13">
-        <v>18.8655226829687</v>
+        <v>16.81035360642258</v>
       </c>
       <c r="H13">
-        <v>6.500684424177232</v>
+        <v>10.92133726647455</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.08590770939736</v>
+        <v>15.50932682966961</v>
       </c>
       <c r="O13">
-        <v>10.77222432775999</v>
+        <v>15.03236027265626</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.5326206541518</v>
+        <v>14.07731342454765</v>
       </c>
       <c r="C14">
-        <v>16.04905170636232</v>
+        <v>10.55754450658238</v>
       </c>
       <c r="D14">
-        <v>5.648931636642917</v>
+        <v>4.081559400535938</v>
       </c>
       <c r="F14">
-        <v>15.89992244383005</v>
+        <v>17.18618188625416</v>
       </c>
       <c r="G14">
-        <v>18.70952973061402</v>
+        <v>16.78925686550901</v>
       </c>
       <c r="H14">
-        <v>6.498032834410076</v>
+        <v>10.92754259977066</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.0711955805399</v>
+        <v>15.50841477743901</v>
       </c>
       <c r="O14">
-        <v>10.73188228884332</v>
+        <v>15.03826035672883</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.40501202156636</v>
+        <v>14.00655676811129</v>
       </c>
       <c r="C15">
-        <v>15.97603873369935</v>
+        <v>10.52107290736473</v>
       </c>
       <c r="D15">
-        <v>5.622735451958412</v>
+        <v>4.069414585456664</v>
       </c>
       <c r="F15">
-        <v>15.83385919161877</v>
+        <v>17.18027378412612</v>
       </c>
       <c r="G15">
-        <v>18.61401666202006</v>
+        <v>16.7764982067977</v>
       </c>
       <c r="H15">
-        <v>6.496562250500845</v>
+        <v>10.93138604485345</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.0622588260986</v>
+        <v>15.50788841577512</v>
       </c>
       <c r="O15">
-        <v>10.70744750611998</v>
+        <v>15.04196501317512</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.66066046509659</v>
+        <v>13.61776360062831</v>
       </c>
       <c r="C16">
-        <v>15.55091937358144</v>
+        <v>10.30926408736229</v>
       </c>
       <c r="D16">
-        <v>5.470160884141137</v>
+        <v>3.998918493405121</v>
       </c>
       <c r="F16">
-        <v>15.45620696627847</v>
+        <v>17.14824285870548</v>
       </c>
       <c r="G16">
-        <v>18.06735852664095</v>
+        <v>16.70591248911777</v>
       </c>
       <c r="H16">
-        <v>6.490443894963254</v>
+        <v>10.95406218811643</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.01218639314312</v>
+        <v>15.50536838968022</v>
       </c>
       <c r="O16">
-        <v>10.57163714623302</v>
+        <v>15.0645823907657</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.1923280967906</v>
+        <v>13.37345949586183</v>
       </c>
       <c r="C17">
-        <v>15.28416373389709</v>
+        <v>10.17686394410599</v>
       </c>
       <c r="D17">
-        <v>5.374376522220411</v>
+        <v>3.954881200174471</v>
       </c>
       <c r="F17">
-        <v>15.22545880174523</v>
+        <v>17.13022899594972</v>
       </c>
       <c r="G17">
-        <v>17.7327556477361</v>
+        <v>16.66488766185379</v>
       </c>
       <c r="H17">
-        <v>6.488701451269066</v>
+        <v>10.96855355951599</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.98247886335701</v>
+        <v>15.50426674134384</v>
       </c>
       <c r="O17">
-        <v>10.49206646474371</v>
+        <v>15.07969274014799</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.91864710178182</v>
+        <v>13.23082870127223</v>
       </c>
       <c r="C18">
-        <v>15.12855644640482</v>
+        <v>10.09982288691806</v>
       </c>
       <c r="D18">
-        <v>5.318483595654494</v>
+        <v>3.929266687212492</v>
       </c>
       <c r="F18">
-        <v>15.09312154832302</v>
+        <v>17.12047160644269</v>
       </c>
       <c r="G18">
-        <v>17.5406374196315</v>
+        <v>16.64213584384553</v>
       </c>
       <c r="H18">
-        <v>6.488418609396164</v>
+        <v>10.97710165721162</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.96576019101827</v>
+        <v>15.50379693430375</v>
       </c>
       <c r="O18">
-        <v>10.44766764101111</v>
+        <v>15.08883665902461</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.82524252000298</v>
+        <v>13.18217491437188</v>
       </c>
       <c r="C19">
-        <v>15.07549807060249</v>
+        <v>10.07358727616294</v>
       </c>
       <c r="D19">
-        <v>5.29942204343847</v>
+        <v>3.92054552312915</v>
       </c>
       <c r="F19">
-        <v>15.04838431771331</v>
+        <v>17.11727182430051</v>
       </c>
       <c r="G19">
-        <v>17.47565327865549</v>
+        <v>16.63457821457355</v>
       </c>
       <c r="H19">
-        <v>6.488444524353413</v>
+        <v>10.9800324666302</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.96016250974637</v>
+        <v>15.50366605540701</v>
       </c>
       <c r="O19">
-        <v>10.43286905892388</v>
+        <v>15.09201029897292</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.24262858461172</v>
+        <v>13.39968518821565</v>
       </c>
       <c r="C20">
-        <v>15.31278590912546</v>
+        <v>10.19105046428342</v>
       </c>
       <c r="D20">
-        <v>5.38465582364825</v>
+        <v>3.959598701505541</v>
       </c>
       <c r="F20">
-        <v>15.2499836665048</v>
+        <v>17.13208417312732</v>
       </c>
       <c r="G20">
-        <v>17.76834127151307</v>
+        <v>16.6691675805159</v>
       </c>
       <c r="H20">
-        <v>6.488812041263669</v>
+        <v>10.96698887424038</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.98560309426423</v>
+        <v>15.50436706997098</v>
       </c>
       <c r="O20">
-        <v>10.50039510226632</v>
+        <v>15.07803732377067</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.59358151811166</v>
+        <v>14.11133943980725</v>
       </c>
       <c r="C21">
-        <v>16.08394430410446</v>
+        <v>10.57498346884958</v>
       </c>
       <c r="D21">
-        <v>5.661449925749787</v>
+        <v>4.087367102587248</v>
       </c>
       <c r="F21">
-        <v>15.93161666906312</v>
+        <v>17.18904718285208</v>
       </c>
       <c r="G21">
-        <v>18.75534118049253</v>
+        <v>16.79541942275914</v>
       </c>
       <c r="H21">
-        <v>6.498779554535779</v>
+        <v>10.92571108499614</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.07550127483642</v>
+        <v>15.5086759418803</v>
       </c>
       <c r="O21">
-        <v>10.74367420272331</v>
+        <v>15.03650845465905</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.43836585051164</v>
+        <v>14.58223370353113</v>
       </c>
       <c r="C22">
-        <v>16.56830293448728</v>
+        <v>10.81765573754221</v>
       </c>
       <c r="D22">
-        <v>5.835175798226256</v>
+        <v>4.168227778038489</v>
       </c>
       <c r="F22">
-        <v>16.3796712030175</v>
+        <v>17.23159577580296</v>
       </c>
       <c r="G22">
-        <v>19.4260434862559</v>
+        <v>16.88528082575252</v>
       </c>
       <c r="H22">
-        <v>6.512115474690485</v>
+        <v>10.90063526315705</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.13759709645375</v>
+        <v>15.51293905834316</v>
       </c>
       <c r="O22">
-        <v>10.91499977265256</v>
+        <v>15.01342277996925</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.99096658972424</v>
+        <v>14.33299524546446</v>
       </c>
       <c r="C23">
-        <v>16.31159884823433</v>
+        <v>10.68890716136954</v>
       </c>
       <c r="D23">
-        <v>5.743113346355851</v>
+        <v>4.125317373324981</v>
       </c>
       <c r="F23">
-        <v>16.14033861848019</v>
+        <v>17.20840303093636</v>
       </c>
       <c r="G23">
-        <v>19.05685200214665</v>
+        <v>16.8366567517059</v>
       </c>
       <c r="H23">
-        <v>6.504353722615003</v>
+        <v>10.91384449024564</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.10414660484679</v>
+        <v>15.51053194049627</v>
       </c>
       <c r="O23">
-        <v>10.82242688646643</v>
+        <v>15.02537186052055</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.21990153639485</v>
+        <v>13.38783533038008</v>
       </c>
       <c r="C24">
-        <v>15.29985281610921</v>
+        <v>10.18463960778451</v>
       </c>
       <c r="D24">
-        <v>5.380011121238177</v>
+        <v>3.957466842721239</v>
       </c>
       <c r="F24">
-        <v>15.238894959471</v>
+        <v>17.1312435810609</v>
       </c>
       <c r="G24">
-        <v>17.75225222011292</v>
+        <v>16.66723002995779</v>
       </c>
       <c r="H24">
-        <v>6.488759808911897</v>
+        <v>10.96769559313823</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.98418950703559</v>
+        <v>15.50432120183923</v>
       </c>
       <c r="O24">
-        <v>10.49662553020027</v>
+        <v>15.07878431495727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.14471111544621</v>
+        <v>12.30941591217682</v>
       </c>
       <c r="C25">
-        <v>14.12557545970334</v>
+        <v>9.607027169801835</v>
       </c>
       <c r="D25">
-        <v>4.95780917760094</v>
+        <v>3.765577688424414</v>
       </c>
       <c r="F25">
-        <v>14.28182829809252</v>
+        <v>17.07111246903078</v>
       </c>
       <c r="G25">
-        <v>16.35890506830305</v>
+        <v>16.51683005777631</v>
       </c>
       <c r="H25">
-        <v>6.499189353196392</v>
+        <v>11.03392516510445</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.86883719500859</v>
+        <v>15.503891715315</v>
       </c>
       <c r="O25">
-        <v>10.19730699163542</v>
+        <v>15.15369473665177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_190/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_190/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.4483165197934</v>
+        <v>19.47388912082415</v>
       </c>
       <c r="C2">
-        <v>9.154983712916174</v>
+        <v>13.19162125387076</v>
       </c>
       <c r="D2">
-        <v>3.615603583881652</v>
+        <v>4.621094993583259</v>
       </c>
       <c r="F2">
-        <v>17.04688280068747</v>
+        <v>13.59552114612332</v>
       </c>
       <c r="G2">
-        <v>16.43456771822514</v>
+        <v>15.35294550962998</v>
       </c>
       <c r="H2">
-        <v>11.08967466736438</v>
+        <v>6.528020111361821</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>15.50902330551442</v>
+        <v>11.7955950369354</v>
       </c>
       <c r="O2">
-        <v>15.22358615560785</v>
+        <v>10.02018275379207</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,22 +456,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.82451622253506</v>
+        <v>18.25211943201889</v>
       </c>
       <c r="C3">
-        <v>8.833332285859225</v>
+        <v>12.51693897988616</v>
       </c>
       <c r="D3">
-        <v>3.508930007559171</v>
+        <v>4.377126262684411</v>
       </c>
       <c r="F3">
-        <v>17.04300878553376</v>
+        <v>13.14486644631386</v>
       </c>
       <c r="G3">
-        <v>16.39678749686747</v>
+        <v>14.68860447285616</v>
       </c>
       <c r="H3">
-        <v>11.13180457383454</v>
+        <v>6.559600833443413</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15.51592581130319</v>
+        <v>11.75304802055503</v>
       </c>
       <c r="O3">
-        <v>15.28006549916674</v>
+        <v>9.925964261828527</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,22 +491,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.42239480811681</v>
+        <v>17.45782979871267</v>
       </c>
       <c r="C4">
-        <v>8.628847687521185</v>
+        <v>12.08280003015144</v>
       </c>
       <c r="D4">
-        <v>3.441098456653105</v>
+        <v>4.219719213818809</v>
       </c>
       <c r="F4">
-        <v>17.04681965753492</v>
+        <v>12.8763609916667</v>
       </c>
       <c r="G4">
-        <v>16.38248584184311</v>
+        <v>14.29115303871852</v>
       </c>
       <c r="H4">
-        <v>11.15981399388763</v>
+        <v>6.584551841360645</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>15.52186180946102</v>
+        <v>11.7303510901799</v>
       </c>
       <c r="O4">
-        <v>15.31921114959527</v>
+        <v>9.880344861391984</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.25386068586346</v>
+        <v>17.12307219033701</v>
       </c>
       <c r="C5">
-        <v>8.543855826896881</v>
+        <v>11.90101775739588</v>
       </c>
       <c r="D5">
-        <v>3.412894884023953</v>
+        <v>4.153694496133835</v>
       </c>
       <c r="F5">
-        <v>17.04992805078433</v>
+        <v>12.76916717615403</v>
       </c>
       <c r="G5">
-        <v>16.37889595074702</v>
+        <v>14.1321150917422</v>
       </c>
       <c r="H5">
-        <v>11.1717660535306</v>
+        <v>6.596062107959594</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>15.52470902946096</v>
+        <v>11.72195328164456</v>
       </c>
       <c r="O5">
-        <v>15.33628228711098</v>
+        <v>9.864743466073843</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,22 +561,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.22559846443014</v>
+        <v>17.0668176122245</v>
       </c>
       <c r="C6">
-        <v>8.529645539883514</v>
+        <v>11.87054337054977</v>
       </c>
       <c r="D6">
-        <v>3.408178557571687</v>
+        <v>4.142618713311738</v>
       </c>
       <c r="F6">
-        <v>17.05053808358255</v>
+        <v>12.751506762218</v>
       </c>
       <c r="G6">
-        <v>16.37843498880328</v>
+        <v>14.10589252270643</v>
       </c>
       <c r="H6">
-        <v>11.17378316273779</v>
+        <v>6.598052854799096</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>15.52520771090922</v>
+        <v>11.72060994123415</v>
       </c>
       <c r="O6">
-        <v>15.33918438915771</v>
+        <v>9.862330633318459</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,22 +596,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.42014058953104</v>
+        <v>17.45335996397695</v>
       </c>
       <c r="C7">
-        <v>8.627708057124375</v>
+        <v>12.08036796376062</v>
       </c>
       <c r="D7">
-        <v>3.440720332726455</v>
+        <v>4.218836344195318</v>
       </c>
       <c r="F7">
-        <v>17.04685528292561</v>
+        <v>12.87490611915198</v>
       </c>
       <c r="G7">
-        <v>16.38242836644552</v>
+        <v>14.28899594970624</v>
       </c>
       <c r="H7">
-        <v>11.15997300589254</v>
+        <v>6.584701709854576</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15.52189847239062</v>
+        <v>11.73023440122233</v>
       </c>
       <c r="O7">
-        <v>15.31943685212928</v>
+        <v>9.880122476511499</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,22 +631,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.23727001136684</v>
+        <v>19.06178452229551</v>
       </c>
       <c r="C8">
-        <v>9.045582678014313</v>
+        <v>12.96318862796292</v>
       </c>
       <c r="D8">
-        <v>3.579321238480738</v>
+        <v>4.538571647680755</v>
       </c>
       <c r="F8">
-        <v>17.04426226583156</v>
+        <v>13.43853198000496</v>
       </c>
       <c r="G8">
-        <v>16.41969684952241</v>
+        <v>15.12188610219809</v>
       </c>
       <c r="H8">
-        <v>11.10375629489078</v>
+        <v>6.537721361864622</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>15.51105171162833</v>
+        <v>11.7802073739437</v>
       </c>
       <c r="O8">
-        <v>15.24213054597412</v>
+        <v>9.985109074108044</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,22 +666,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.68327450934834</v>
+        <v>21.86587368907643</v>
       </c>
       <c r="C9">
-        <v>9.805916249799466</v>
+        <v>14.53206549381439</v>
       </c>
       <c r="D9">
-        <v>3.831611477533428</v>
+        <v>5.104079327061434</v>
       </c>
       <c r="F9">
-        <v>17.08826323817607</v>
+        <v>14.60173975010216</v>
       </c>
       <c r="G9">
-        <v>16.56310556871167</v>
+        <v>16.82575416662391</v>
       </c>
       <c r="H9">
-        <v>11.01052936186318</v>
+        <v>6.492236908115258</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>15.50319376337328</v>
+        <v>11.9058514771403</v>
       </c>
       <c r="O9">
-        <v>15.12616218188715</v>
+        <v>10.29128611440493</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,22 +701,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.64535287856902</v>
+        <v>23.71351732699726</v>
       </c>
       <c r="C10">
-        <v>10.32425028905343</v>
+        <v>15.58106211951435</v>
       </c>
       <c r="D10">
-        <v>4.003904411565509</v>
+        <v>5.480981902868175</v>
       </c>
       <c r="F10">
-        <v>17.15037999818984</v>
+        <v>15.4825857681199</v>
       </c>
       <c r="G10">
-        <v>16.71070760611783</v>
+        <v>18.10558021821588</v>
       </c>
       <c r="H10">
-        <v>10.95243750530239</v>
+        <v>6.490741622893677</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>15.50551625554769</v>
+        <v>12.0156263522876</v>
       </c>
       <c r="O10">
-        <v>15.06291963980145</v>
+        <v>10.58090271915215</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,22 +736,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.063719302182</v>
+        <v>24.50826850852011</v>
       </c>
       <c r="C11">
-        <v>10.55058098332583</v>
+        <v>16.03511544051168</v>
       </c>
       <c r="D11">
-        <v>4.079240451852024</v>
+        <v>5.643931637927931</v>
       </c>
       <c r="F11">
-        <v>17.18504502969394</v>
+        <v>15.88728579828048</v>
       </c>
       <c r="G11">
-        <v>16.78680729261561</v>
+        <v>18.69126241134692</v>
       </c>
       <c r="H11">
-        <v>10.92827506371955</v>
+        <v>6.497742541026813</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>15.50831220423471</v>
+        <v>12.06948216551902</v>
       </c>
       <c r="O11">
-        <v>15.03896342358866</v>
+        <v>10.7271932565696</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,22 +771,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.22800221528852</v>
+        <v>24.80267670889081</v>
       </c>
       <c r="C12">
-        <v>10.63487538862329</v>
+        <v>16.20368832418628</v>
       </c>
       <c r="D12">
-        <v>4.107316081304415</v>
+        <v>5.704406459914243</v>
       </c>
       <c r="F12">
-        <v>17.19908545392696</v>
+        <v>16.04098553830014</v>
       </c>
       <c r="G12">
-        <v>16.8168877106194</v>
+        <v>18.91336913723659</v>
       </c>
       <c r="H12">
-        <v>10.91945146434235</v>
+        <v>6.501559216398616</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>15.50961937079761</v>
+        <v>12.09044888080806</v>
       </c>
       <c r="O12">
-        <v>15.03058731696572</v>
+        <v>10.78470476407632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,22 +806,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.1927950636679</v>
+        <v>24.73956124086539</v>
       </c>
       <c r="C13">
-        <v>10.6167846326398</v>
+        <v>16.16753341328106</v>
       </c>
       <c r="D13">
-        <v>4.101289841150016</v>
+        <v>5.691436952083501</v>
       </c>
       <c r="F13">
-        <v>17.19602111056205</v>
+        <v>16.00786543665589</v>
       </c>
       <c r="G13">
-        <v>16.81035360642258</v>
+        <v>18.86552268296878</v>
       </c>
       <c r="H13">
-        <v>10.92133726647455</v>
+        <v>6.500684424177226</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>15.50932682966961</v>
+        <v>12.08590770939733</v>
       </c>
       <c r="O13">
-        <v>15.03236027265626</v>
+        <v>10.77222432775996</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,22 +841,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.07731342454765</v>
+        <v>24.5326206541518</v>
       </c>
       <c r="C14">
-        <v>10.55754450658238</v>
+        <v>16.04905170636246</v>
       </c>
       <c r="D14">
-        <v>4.081559400535938</v>
+        <v>5.64893163664287</v>
       </c>
       <c r="F14">
-        <v>17.18618188625416</v>
+        <v>15.89992244383006</v>
       </c>
       <c r="G14">
-        <v>16.78925686550901</v>
+        <v>18.70952973061407</v>
       </c>
       <c r="H14">
-        <v>10.92754259977066</v>
+        <v>6.498032834410082</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>15.50841477743901</v>
+        <v>12.0711955805399</v>
       </c>
       <c r="O14">
-        <v>15.03826035672883</v>
+        <v>10.73188228884333</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,22 +876,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.00655676811129</v>
+        <v>24.40501202156626</v>
       </c>
       <c r="C15">
-        <v>10.52107290736473</v>
+        <v>15.97603873369949</v>
       </c>
       <c r="D15">
-        <v>4.069414585456664</v>
+        <v>5.622735451958421</v>
       </c>
       <c r="F15">
-        <v>17.18027378412612</v>
+        <v>15.83385919161884</v>
       </c>
       <c r="G15">
-        <v>16.7764982067977</v>
+        <v>18.61401666202007</v>
       </c>
       <c r="H15">
-        <v>10.93138604485345</v>
+        <v>6.496562250500896</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>15.50788841577512</v>
+        <v>12.06225882609861</v>
       </c>
       <c r="O15">
-        <v>15.04196501317512</v>
+        <v>10.70744750612005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,22 +911,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.61776360062831</v>
+        <v>23.66066046509655</v>
       </c>
       <c r="C16">
-        <v>10.30926408736229</v>
+        <v>15.5509193735816</v>
       </c>
       <c r="D16">
-        <v>3.998918493405121</v>
+        <v>5.470160884141079</v>
       </c>
       <c r="F16">
-        <v>17.14824285870548</v>
+        <v>15.4562069662785</v>
       </c>
       <c r="G16">
-        <v>16.70591248911777</v>
+        <v>18.06735852664097</v>
       </c>
       <c r="H16">
-        <v>10.95406218811643</v>
+        <v>6.49044389496327</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>15.50536838968022</v>
+        <v>12.01218639314309</v>
       </c>
       <c r="O16">
-        <v>15.0645823907657</v>
+        <v>10.57163714623302</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,22 +946,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.37345949586183</v>
+        <v>23.19232809679055</v>
       </c>
       <c r="C17">
-        <v>10.17686394410599</v>
+        <v>15.28416373389708</v>
       </c>
       <c r="D17">
-        <v>3.954881200174471</v>
+        <v>5.374376522220483</v>
       </c>
       <c r="F17">
-        <v>17.13022899594972</v>
+        <v>15.22545880174525</v>
       </c>
       <c r="G17">
-        <v>16.66488766185379</v>
+        <v>17.73275564773613</v>
       </c>
       <c r="H17">
-        <v>10.96855355951599</v>
+        <v>6.488701451269079</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>15.50426674134384</v>
+        <v>11.98247886335701</v>
       </c>
       <c r="O17">
-        <v>15.07969274014799</v>
+        <v>10.49206646474374</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,22 +981,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.23082870127223</v>
+        <v>22.91864710178188</v>
       </c>
       <c r="C18">
-        <v>10.09982288691806</v>
+        <v>15.1285564464048</v>
       </c>
       <c r="D18">
-        <v>3.929266687212492</v>
+        <v>5.318483595654476</v>
       </c>
       <c r="F18">
-        <v>17.12047160644269</v>
+        <v>15.09312154832297</v>
       </c>
       <c r="G18">
-        <v>16.64213584384553</v>
+        <v>17.54063741963142</v>
       </c>
       <c r="H18">
-        <v>10.97710165721162</v>
+        <v>6.488418609396192</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>15.50379693430375</v>
+        <v>11.96576019101829</v>
       </c>
       <c r="O18">
-        <v>15.08883665902461</v>
+        <v>10.44766764101104</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,22 +1016,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.18217491437188</v>
+        <v>22.82524252000299</v>
       </c>
       <c r="C19">
-        <v>10.07358727616294</v>
+        <v>15.07549807060252</v>
       </c>
       <c r="D19">
-        <v>3.92054552312915</v>
+        <v>5.299422043438623</v>
       </c>
       <c r="F19">
-        <v>17.11727182430051</v>
+        <v>15.04838431771326</v>
       </c>
       <c r="G19">
-        <v>16.63457821457355</v>
+        <v>17.47565327865544</v>
       </c>
       <c r="H19">
-        <v>10.9800324666302</v>
+        <v>6.488444524353453</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>15.50366605540701</v>
+        <v>11.96016250974638</v>
       </c>
       <c r="O19">
-        <v>15.09201029897292</v>
+        <v>10.43286905892384</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,22 +1051,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.39968518821565</v>
+        <v>23.24262858461173</v>
       </c>
       <c r="C20">
-        <v>10.19105046428342</v>
+        <v>15.31278590912536</v>
       </c>
       <c r="D20">
-        <v>3.959598701505541</v>
+        <v>5.384655823648353</v>
       </c>
       <c r="F20">
-        <v>17.13208417312732</v>
+        <v>15.24998366650475</v>
       </c>
       <c r="G20">
-        <v>16.6691675805159</v>
+        <v>17.76834127151304</v>
       </c>
       <c r="H20">
-        <v>10.96698887424038</v>
+        <v>6.488812041263696</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>15.50436706997098</v>
+        <v>11.98560309426425</v>
       </c>
       <c r="O20">
-        <v>15.07803732377067</v>
+        <v>10.50039510226632</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,22 +1086,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.11133943980725</v>
+        <v>24.59358151811172</v>
       </c>
       <c r="C21">
-        <v>10.57498346884958</v>
+        <v>16.08394430410439</v>
       </c>
       <c r="D21">
-        <v>4.087367102587248</v>
+        <v>5.661449925749767</v>
       </c>
       <c r="F21">
-        <v>17.18904718285208</v>
+        <v>15.93161666906313</v>
       </c>
       <c r="G21">
-        <v>16.79541942275914</v>
+        <v>18.75534118049258</v>
       </c>
       <c r="H21">
-        <v>10.92571108499614</v>
+        <v>6.498779554535831</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>15.5086759418803</v>
+        <v>12.07550127483644</v>
       </c>
       <c r="O21">
-        <v>15.03650845465905</v>
+        <v>10.74367420272333</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,22 +1121,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.58223370353113</v>
+        <v>25.43836585051167</v>
       </c>
       <c r="C22">
-        <v>10.81765573754221</v>
+        <v>16.56830293448736</v>
       </c>
       <c r="D22">
-        <v>4.168227778038489</v>
+        <v>5.835175798226256</v>
       </c>
       <c r="F22">
-        <v>17.23159577580296</v>
+        <v>16.37967120301749</v>
       </c>
       <c r="G22">
-        <v>16.88528082575252</v>
+        <v>19.4260434862559</v>
       </c>
       <c r="H22">
-        <v>10.90063526315705</v>
+        <v>6.512115474690453</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>15.51293905834316</v>
+        <v>12.13759709645379</v>
       </c>
       <c r="O22">
-        <v>15.01342277996925</v>
+        <v>10.91499977265256</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,22 +1156,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.33299524546446</v>
+        <v>24.99096658972422</v>
       </c>
       <c r="C23">
-        <v>10.68890716136954</v>
+        <v>16.31159884823443</v>
       </c>
       <c r="D23">
-        <v>4.125317373324981</v>
+        <v>5.743113346355806</v>
       </c>
       <c r="F23">
-        <v>17.20840303093636</v>
+        <v>16.1403386184802</v>
       </c>
       <c r="G23">
-        <v>16.8366567517059</v>
+        <v>19.05685200214667</v>
       </c>
       <c r="H23">
-        <v>10.91384449024564</v>
+        <v>6.504353722615003</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>15.51053194049627</v>
+        <v>12.10414660484679</v>
       </c>
       <c r="O23">
-        <v>15.02537186052055</v>
+        <v>10.82242688646644</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,22 +1191,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.38783533038008</v>
+        <v>23.21990153639491</v>
       </c>
       <c r="C24">
-        <v>10.18463960778451</v>
+        <v>15.29985281610928</v>
       </c>
       <c r="D24">
-        <v>3.957466842721239</v>
+        <v>5.38001112123825</v>
       </c>
       <c r="F24">
-        <v>17.1312435810609</v>
+        <v>15.23889495947095</v>
       </c>
       <c r="G24">
-        <v>16.66723002995779</v>
+        <v>17.7522522201129</v>
       </c>
       <c r="H24">
-        <v>10.96769559313823</v>
+        <v>6.488759808911886</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>15.50432120183923</v>
+        <v>11.9841895070356</v>
       </c>
       <c r="O24">
-        <v>15.07878431495727</v>
+        <v>10.4966255302002</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,22 +1226,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.30941591217682</v>
+        <v>21.14471111544614</v>
       </c>
       <c r="C25">
-        <v>9.607027169801835</v>
+        <v>14.12557545970341</v>
       </c>
       <c r="D25">
-        <v>3.765577688424414</v>
+        <v>4.957809177601008</v>
       </c>
       <c r="F25">
-        <v>17.07111246903078</v>
+        <v>14.28182829809251</v>
       </c>
       <c r="G25">
-        <v>16.51683005777631</v>
+        <v>16.35890506830302</v>
       </c>
       <c r="H25">
-        <v>11.03392516510445</v>
+        <v>6.499189353196402</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>15.503891715315</v>
+        <v>11.86883719500858</v>
       </c>
       <c r="O25">
-        <v>15.15369473665177</v>
+        <v>10.19730699163543</v>
       </c>
     </row>
   </sheetData>
